--- a/hasil_rgb_glcm/glcm_analysis.xlsx
+++ b/hasil_rgb_glcm/glcm_analysis.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nama</t>
+          <t>Nama File</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Processed Image</t>
+          <t>Unnamed Image</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -482,7 +482,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Processed Image</t>
+          <t>Unnamed Image</t>
         </is>
       </c>
       <c r="B3" t="n">
